--- a/public/rezultate.xlsx
+++ b/public/rezultate.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
   <si>
     <t>Date Sportiv</t>
   </si>
@@ -49,13 +49,16 @@
     <t>Numele Competitiei</t>
   </si>
   <si>
+    <t>Tipul Distantei</t>
+  </si>
+  <si>
     <t>Grupa</t>
   </si>
   <si>
     <t>Localitatea</t>
   </si>
   <si>
-    <t>Orasul</t>
+    <t>Tara</t>
   </si>
   <si>
     <t>Locul</t>
@@ -443,11 +446,12 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="6" t="s">
+      <c r="K1" s="2"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
@@ -483,11 +487,14 @@
       <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="10" t="s">
-        <v>15</v>
+      <c r="N2" s="10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -495,385 +502,410 @@
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
       <c r="D3" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="13"/>
       <c r="G3" s="12"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="14">
+      <c r="J3" s="11"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="14">
         <v>0.0</v>
       </c>
-      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
     </row>
     <row r="4">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="12"/>
       <c r="D4" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="13"/>
       <c r="G4" s="12"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="13"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="13"/>
     </row>
     <row r="5">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
       <c r="D5" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="13"/>
       <c r="G5" s="12"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="13"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="13"/>
     </row>
     <row r="6">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
       <c r="D6" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="13"/>
       <c r="G6" s="12"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="13"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="13"/>
     </row>
     <row r="7">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
       <c r="D7" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="13"/>
       <c r="G7" s="12"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="13"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="13"/>
     </row>
     <row r="8">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
       <c r="D8" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="13"/>
       <c r="G8" s="12"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="13"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="13"/>
     </row>
     <row r="9">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
       <c r="D9" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="13"/>
       <c r="G9" s="12"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="13"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="13"/>
     </row>
     <row r="10">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
       <c r="D10" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="13"/>
       <c r="G10" s="12"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="13"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="13"/>
     </row>
     <row r="11">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
       <c r="D11" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="13"/>
       <c r="G11" s="12"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="13"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="13"/>
     </row>
     <row r="12">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="12"/>
       <c r="D12" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="13"/>
       <c r="G12" s="12"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="13"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="13"/>
     </row>
     <row r="13">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
       <c r="D13" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="13"/>
       <c r="G13" s="12"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="13"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="13"/>
     </row>
     <row r="14">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
       <c r="D14" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="13"/>
       <c r="G14" s="12"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="13"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="13"/>
     </row>
     <row r="15">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
       <c r="D15" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="13"/>
       <c r="G15" s="12"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="13"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="13"/>
     </row>
     <row r="16">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
       <c r="D16" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="13"/>
       <c r="G16" s="12"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="13"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="13"/>
     </row>
     <row r="17">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
       <c r="D17" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="13"/>
       <c r="G17" s="12"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="13"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="13"/>
     </row>
     <row r="18">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
       <c r="D18" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="13"/>
       <c r="G18" s="12"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="13"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="13"/>
     </row>
     <row r="19">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
       <c r="D19" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="13"/>
       <c r="G19" s="12"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="13"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="13"/>
     </row>
     <row r="20">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
       <c r="D20" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="13"/>
       <c r="G20" s="12"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="13"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="13"/>
     </row>
     <row r="21">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
       <c r="D21" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="13"/>
       <c r="G21" s="12"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="13"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="13"/>
     </row>
     <row r="22">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
       <c r="D22" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="13"/>
       <c r="G22" s="12"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="13"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="13"/>
     </row>
     <row r="23">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
       <c r="D23" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="13"/>
       <c r="G23" s="12"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="13"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="13"/>
     </row>
     <row r="24">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="13"/>
       <c r="G24" s="12"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="13"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="G1:L1"/>
   </mergeCells>
   <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I3:I24">
+      <formula1>"Sprint,Lunga,Medie,Stafeta,Alta"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F3:F24">
       <formula1>"MISRM,MSRM,CMSRM,I,II,III,I j ,II j,III j ,f/c"</formula1>
     </dataValidation>
